--- a/x.xlsx
+++ b/x.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="308">
   <si>
     <t>2021.3.13</t>
   </si>
@@ -55,9 +55,6 @@
     <t>https://xuewen.cnki.net/R2007060580000465.html</t>
   </si>
   <si>
-    <t>https://cn.bing.com/dict/search?q=%E8%BD%AF%E4%BB%B6%E5%A4%8D%E7%94%A8&amp;qs=n&amp;form=Z9LH5&amp;sp=-1&amp;pq=%E8%BD%AF%E4%BB%B6%E5%A4%8D%E7%94%A8&amp;sc=0-4&amp;sk=&amp;cvid=426DEEFD6E584074952ED433A0C67AAD</t>
-  </si>
-  <si>
     <t>Quality planning(质量策划)</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>https://baike.baidu.com/item/%E8%B4%A8%E9%87%8F%E4%BF%9D%E8%AF%81</t>
   </si>
   <si>
-    <t>https://wiki.mbalib.com/wiki/%E8%B4%A8%E9%87%8F%E4%BF%9D%E8%AF%81</t>
-  </si>
-  <si>
     <t>Software quality(软件质量)</t>
   </si>
   <si>
@@ -125,12 +119,6 @@
   </si>
   <si>
     <t>https://www.baike.com/wikiid/4029078207730642347?prd=home_search&amp;search_id=1g9rsk3yoq9s00&amp;view_id=3e33j1ta15o000</t>
-  </si>
-  <si>
-    <t>Extreme Programming, referred to as "XP") is a software development method proposed in the 1990s in the 1990s. 2 In 2001, the leaders of the extreme programming were combined with other pioneers who practice a lightweight software development method, signed the "Agile Software Development Declaration", here, the concept of "agile" (Agile).</t>
-  </si>
-  <si>
-    <t>https://cn.bing.com/search?q=%e6%9e%81%e9%99%90%e7%bc%96%e7%a8%8b+Extreme+Programming&amp;FORM=BDVT01&amp;mkt=zh-cn</t>
   </si>
   <si>
     <t>Manifesto for Agile Software Development(敏捷软件开发宣言)</t>
@@ -1518,6 +1506,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Dependency(</t>
     </r>
     <r>
@@ -1556,6 +1551,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Aggregation(</t>
     </r>
     <r>
@@ -1603,6 +1605,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Realization(</t>
     </r>
     <r>
@@ -1636,10 +1645,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -1673,21 +1682,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1701,9 +1711,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1724,23 +1733,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1763,7 +1772,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1771,23 +1780,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1801,8 +1802,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1918,7 +1927,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1930,19 +1939,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1954,13 +1981,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1972,85 +2017,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2074,13 +2041,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2092,13 +2065,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2109,6 +2118,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2123,6 +2156,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2142,16 +2184,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2160,8 +2202,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2176,49 +2218,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2227,140 +2236,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2681,10 +2689,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
@@ -2750,9 +2758,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="4:4">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2760,13 +2777,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2774,13 +2791,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2788,13 +2805,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2802,1405 +2819,1370 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="4:4">
-      <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" ht="14.4" spans="1:4">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" ht="14.4" spans="1:4">
+      <c r="A23" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>63</v>
+      <c r="B23" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" ht="14.4" spans="1:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" ht="14.4" spans="1:4">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" ht="14.4" spans="1:4">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" ht="14.4" spans="1:4">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" ht="14.4" spans="1:4">
       <c r="A30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>82</v>
+        <v>62</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" ht="14.4" spans="1:4">
       <c r="A31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>85</v>
+        <v>62</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" ht="14.4" spans="1:4">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" ht="14.4" spans="1:4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" ht="14.4" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>94</v>
+        <v>62</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" ht="14.4" spans="1:4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>97</v>
+        <v>62</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" ht="14.4" spans="1:4">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>109</v>
+        <v>62</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>112</v>
+        <v>123</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="C41" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" ht="14.4" spans="1:4">
+        <v>125</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" t="s">
-        <v>117</v>
+        <v>128</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
-      </c>
-      <c r="D43" t="s">
-        <v>120</v>
+        <v>131</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D44" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" t="s">
-        <v>126</v>
+        <v>137</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>127</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C49" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>136</v>
+        <v>149</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>127</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>137</v>
+        <v>123</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
-      </c>
-      <c r="D50" t="s">
-        <v>139</v>
+        <v>152</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>127</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>140</v>
+        <v>123</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>142</v>
+        <v>155</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C52" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>145</v>
+        <v>158</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C53" t="s">
-        <v>147</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>148</v>
+        <v>161</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C54" t="s">
-        <v>150</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>151</v>
+        <v>164</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="C55" t="s">
-        <v>153</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>167</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" ht="15.6" spans="1:4">
       <c r="A56" t="s">
-        <v>127</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>155</v>
+        <v>123</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="C56" t="s">
-        <v>156</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="2"/>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="1:4">
+        <v>170</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" ht="14.4" spans="1:4">
+      <c r="A57" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" t="s">
+        <v>173</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" ht="14.4" spans="1:4">
       <c r="A58" t="s">
-        <v>127</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>158</v>
+        <v>123</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="C58" t="s">
-        <v>159</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>176</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" ht="14.4" spans="1:4">
       <c r="A59" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C59" t="s">
-        <v>162</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>163</v>
+        <v>179</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>127</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>164</v>
+        <v>123</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="C60" t="s">
-        <v>165</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>166</v>
+        <v>182</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>127</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>167</v>
+        <v>123</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="C61" t="s">
-        <v>168</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>185</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" ht="14.4" spans="1:4">
       <c r="A62" t="s">
-        <v>127</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>170</v>
+        <v>187</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="C62" t="s">
-        <v>171</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="63" ht="15.6" spans="1:4">
+        <v>189</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="C63" t="s">
-        <v>174</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="64" ht="14.4" spans="1:4">
+        <v>192</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="C64" t="s">
-        <v>177</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="65" ht="14.4" spans="1:4">
+        <v>195</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C65" t="s">
-        <v>180</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="66" ht="14.4" spans="1:4">
+        <v>198</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="C66" t="s">
-        <v>183</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>184</v>
+        <v>200</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>127</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="C67" t="s">
-        <v>186</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>187</v>
+        <v>203</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>127</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="C68" t="s">
-        <v>189</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="70" ht="14.4" spans="1:4">
+        <v>206</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C69" t="s">
+        <v>209</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>191</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="C70" t="s">
-        <v>193</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>194</v>
+        <v>212</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>191</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="C71" t="s">
-        <v>196</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>197</v>
+        <v>215</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>191</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>198</v>
+        <v>187</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="C72" t="s">
-        <v>199</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>200</v>
+        <v>218</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>191</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>201</v>
+        <v>187</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="C73" t="s">
-        <v>202</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>200</v>
+        <v>221</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="C74" t="s">
-        <v>204</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>205</v>
+        <v>224</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="C75" t="s">
-        <v>207</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>208</v>
+        <v>227</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="C76" t="s">
-        <v>210</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>211</v>
+        <v>230</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="C77" t="s">
-        <v>213</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>214</v>
+        <v>233</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="C78" t="s">
-        <v>216</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>217</v>
+        <v>236</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>191</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>218</v>
+        <v>187</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="C79" t="s">
-        <v>219</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4">
-      <c r="B80" s="2"/>
-      <c r="D80" s="4"/>
+        <v>239</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>187</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C80" t="s">
+        <v>242</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>191</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>221</v>
+        <v>187</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="C81" t="s">
-        <v>222</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>245</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="82" ht="14.4" spans="1:4">
       <c r="A82" t="s">
-        <v>191</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>224</v>
+        <v>247</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="C82" t="s">
-        <v>225</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>226</v>
+        <v>249</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>191</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>227</v>
+        <v>247</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="C83" t="s">
-        <v>228</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>229</v>
+        <v>252</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="C84" t="s">
-        <v>231</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>232</v>
+        <v>255</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="C85" t="s">
-        <v>234</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>235</v>
+        <v>258</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="C86" t="s">
-        <v>237</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>238</v>
+        <v>261</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="C87" t="s">
-        <v>240</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>241</v>
+        <v>264</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="C88" t="s">
-        <v>243</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>244</v>
+        <v>267</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="C89" t="s">
-        <v>246</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>247</v>
+        <v>270</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="C90" t="s">
-        <v>249</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="92" ht="14.4" spans="1:4">
+        <v>273</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>247</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C91" t="s">
+        <v>276</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>251</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="C92" t="s">
-        <v>253</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>254</v>
+        <v>279</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>251</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>255</v>
+        <v>247</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="C93" t="s">
-        <v>256</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>257</v>
+        <v>282</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="C94" t="s">
-        <v>259</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>260</v>
+        <v>285</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="C95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>288</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="96" ht="15" spans="1:4">
       <c r="A96" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="C96" t="s">
-        <v>265</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>266</v>
+        <v>291</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C97" t="s">
-        <v>268</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>294</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="98" ht="15" spans="1:4">
       <c r="A98" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="C98" t="s">
-        <v>271</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>272</v>
+        <v>297</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="C99" t="s">
-        <v>274</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>275</v>
+        <v>300</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="C100" t="s">
-        <v>277</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>303</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="101" ht="15" spans="1:4">
       <c r="A101" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="C101" t="s">
-        <v>280</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4">
-      <c r="B102" s="3"/>
-      <c r="D102" s="4"/>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="s">
-        <v>251</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C103" t="s">
-        <v>283</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
-        <v>251</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C104" t="s">
-        <v>286</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" t="s">
-        <v>251</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C105" t="s">
-        <v>289</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" t="s">
-        <v>251</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C106" t="s">
-        <v>292</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="107" ht="15" spans="1:4">
-      <c r="A107" t="s">
-        <v>251</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C107" t="s">
-        <v>295</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
-        <v>251</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C108" t="s">
-        <v>298</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="109" ht="15" spans="1:4">
-      <c r="A109" t="s">
-        <v>251</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C109" t="s">
-        <v>301</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
-        <v>251</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C110" t="s">
-        <v>304</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
-        <v>251</v>
-      </c>
-      <c r="B111" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D101" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="112" ht="15" spans="1:4">
-      <c r="A112" t="s">
-        <v>251</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C112" t="s">
-        <v>310</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>311</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D27" r:id="rId1" display="https://www.zhihu.com/question/21552857"/>
-    <hyperlink ref="D47" r:id="rId2" display="https://refactoring.guru/design-patterns/bridge#:~:text=The%20Bridge%20pattern%20lets%20you%20split%20the%20monolithic,and%20minimizes%20the%20risk%20of%20breaking%20existing%20code."/>
-    <hyperlink ref="D48" r:id="rId3" display="https://www.itdevtools.com/tech/4983.html"/>
-    <hyperlink ref="D49" r:id="rId4" display="https://www.runoob.com/design-pattern/facade-pattern.html"/>
-    <hyperlink ref="D51" r:id="rId5" display="https://www.geeksforgeeks.org/chain-responsibility-design-pattern/#:~:text=Chain%20of%20responsibility%20pattern%20is%20used%20to%20achieve,the%20next%20object%20in%20the%20chain%20or%20not."/>
-    <hyperlink ref="D52" r:id="rId6" display="https://zhuanlan.zhihu.com/p/86318110"/>
-    <hyperlink ref="D53" r:id="rId7" display="https://www.cnblogs.com/Bobby0322/p/4195555.html"/>
-    <hyperlink ref="D54" r:id="rId8" display="https://refactoring.guru/design-patterns/iterator#:~:text=The%20main%20idea%20of%20the%20Iterator%20pattern%20is,traverse%20the%20same%20collection%20at%20the%20same%20time."/>
-    <hyperlink ref="D55" r:id="rId9" display="https://blog.csdn.net/sophiemantela/article/details/106571588"/>
-    <hyperlink ref="D56" r:id="rId10" display="https://www.tutorialspoint.com/design_pattern/memento_pattern.htm"/>
-    <hyperlink ref="D58" r:id="rId11" display="https://www.baeldung.com/java-observer-pattern"/>
-    <hyperlink ref="D59" r:id="rId12" display="https://zhuanlan.zhihu.com/p/86076272"/>
-    <hyperlink ref="D60" r:id="rId13" display="https://www.jianshu.com/p/0c62bf587b9c"/>
-    <hyperlink ref="D61" r:id="rId14" display="https://www.oodesign.com/template-method-pattern.html"/>
-    <hyperlink ref="D62" r:id="rId15" display="https://www.cnblogs.com/zhenyulu/articles/79719.html"/>
-    <hyperlink ref="D63" r:id="rId16" display="https://dictionary.cambridge.org/dictionary/english/stub"/>
-    <hyperlink ref="D64" r:id="rId17" display="https://blog.csdn.net/OnlyQi/article/details/7975602#:~:text=Distributed%20computing%20is%20a%20field%20of%20computer%20science,other%20in%20order%20to%20achieve%20a%20common%20goal."/>
-    <hyperlink ref="D65" r:id="rId18" display="https://www.w3cschool.cn/software_testing/software_testing-qna537uy.html"/>
-    <hyperlink ref="D66" r:id="rId19" display="https://zhuanlan.zhihu.com/p/61723055"/>
-    <hyperlink ref="D67" r:id="rId20" display="https://www.baike.com/wiki/%e6%a8%a1%e5%9d%97%e7%8b%ac%e7%ab%8b%e6%80%a7?view_id=2n21dtzzxhq000"/>
-    <hyperlink ref="D68" r:id="rId21" display="https://www.w3cschool.cn/software_testing/software_testing-i75b3889.html"/>
-    <hyperlink ref="D71" r:id="rId22" display="https://docs.oracle.com/cd/E23120_01/html/821-2854/initialconfigofcontroldomain.html" tooltip="https://docs.oracle.com/cd/E23120_01/html/821-2854/initialconfigofcontroldomain.html"/>
-    <hyperlink ref="D72" r:id="rId23" display="https://www.jianshu.com/p/a0cd74930656" tooltip="https://www.jianshu.com/p/a0cd74930656"/>
-    <hyperlink ref="D73" r:id="rId23" display="https://www.jianshu.com/p/a0cd74930656"/>
-    <hyperlink ref="D74" r:id="rId24" display="https://www.mesacc.edu/community-civic-engagement/service-learning/independent-module"/>
-    <hyperlink ref="D75" r:id="rId25" display="https://searchsoftwarequality.techtarget.com/definition/structured-programming-modular-programming#:~:text=Structured%20programming%20encourages%20dividing%20an%20application%20program%20into,related%20logic%20designed%20to%20improve%20readability%20and%20maintainability."/>
-    <hyperlink ref="D76" r:id="rId26" display="https://www.cnblogs.com/yangcaogui/archive/2012/02/06/2337483.html"/>
-    <hyperlink ref="D77" r:id="rId27" display="https://www.edureka.co/blog/what-is-integration-testing-a-simple-guide-on-how-to-perform-integration-testing/"/>
-    <hyperlink ref="D78" r:id="rId28" display="https://softwaretestingfundamentals.com/system-testing/"/>
-    <hyperlink ref="D79" r:id="rId29" display="https://zhuanlan.zhihu.com/p/361444661"/>
-    <hyperlink ref="D81" r:id="rId30" display="https://www.softwaretestinghelp.com/beta-testing/#:~:text=What%20is%20Beta%20Testing%20%E2%80%93%20Definition.%20Beta%20Testing,use%20it%2C%20for%20over%20a%20period%20of%20time."/>
-    <hyperlink ref="D82" r:id="rId31" display="https://www.testingxperts.com/blog/regression-testing"/>
-    <hyperlink ref="D83" r:id="rId32" display="https://www.sciencedirect.com/topics/computer-science/software-maintenance"/>
-    <hyperlink ref="D84" r:id="rId33" display="https://www.fiixsoftware.com/corrective-maintenance/" tooltip="https://www.fiixsoftware.com/corrective-maintenance/"/>
-    <hyperlink ref="D85" r:id="rId34" display="http://www.perfectmaintenancecleaning.com/"/>
-    <hyperlink ref="D86" r:id="rId35" display="https://www.corrosionpedia.com/definition/6211/adaptive-maintenance"/>
-    <hyperlink ref="D87" r:id="rId36" display="https://www.ibm.com/topics/what-is-preventive-maintenance"/>
-    <hyperlink ref="D88" r:id="rId37" display="https://www.software.ac.uk/resources/guides/developing-maintainable-software#:~:text=Maintainable%20software%20allows%20you%20to%20quickly%20and%20easily%3A,7%20Bring%20new%20developers%20on%20board%20your%20project"/>
-    <hyperlink ref="D89" r:id="rId38" display="https://users.monash.edu/~jonmc/CSE2305/Topics/13.25.SWEng4/html/text.html"/>
-    <hyperlink ref="D90" r:id="rId39" display="https://www.merriam-webster.com/dictionary/inherit"/>
-    <hyperlink ref="D70" r:id="rId40" display="https://corporatefinanceinstitute.com/resources/knowledge/strategy/quality-management/#:~:text=Quality%20management%20consists%20of%20four%20key%20components%2C%20which,and%20reliability%20in%20achieving%20an%20outcome.%20%E6%9B%B4%E5%A4%9A%E7%BB%93%E6%9E%9C...%20"/>
-    <hyperlink ref="D92" r:id="rId41" display="https://www.kanzhun.com/jobs/1451/" tooltip="https://www.kanzhun.com/jobs/1451/"/>
-    <hyperlink ref="D93" r:id="rId42" display="https://www.careerexplorer.com/careers/product-manager/#:~:text=The%20following%20are%20some%20responsibilities%20and%20duties%20of,the%20release%20aspect%20of%20the%20product%20%E6%9B%B4%E5%A4%9A%E7%BB%93%E6%9E%9C...%20"/>
-    <hyperlink ref="D94" r:id="rId43" display="https://www.glassdoor.com/Job-Descriptions/Development-Manager.htm#:~:text=What%20is%20a%20Development%20Manager%3F%20A%20development%20manager,tasks%20required%20to%20successfully%20complete%20the%20company%27s%20initiatives."/>
-    <hyperlink ref="D95" r:id="rId44" display="https://www.merriam-webster.com/dictionary/designer"/>
-    <hyperlink ref="D96" r:id="rId45" display="https://www.guru99.com/introduction-to-test-management-for-curious-manager.html"/>
-    <hyperlink ref="D97" r:id="rId46" display="https://cn.bing.com/dict/search?q=developer&amp;FORM=BDVSP2&amp;qpvt=Developer"/>
-    <hyperlink ref="D98" r:id="rId47" display="https://www.thefreedictionary.com/tester"/>
-    <hyperlink ref="D99" r:id="rId48" display="https://www.coursehero.com/file/38574358/2-Implement-project-personnel-training-and-development-rev2pdf/"/>
-    <hyperlink ref="D100" r:id="rId49" display="https://dictionary.cambridge.org/dictionary/english/demand"/>
-    <hyperlink ref="D101" r:id="rId50" display="https://careers.skyworksinc.com/job/Irvine-Demand-Management-Business-Analyst-CA-92602/685953700/#:~:text=The%20Sr.%20Demand%20Analyst%20will%20be%20part%20of,as%20well%20as%20identifies%20and%20resolves%20forecast%20variances."/>
-    <hyperlink ref="D103" r:id="rId51" display="https://www.techopedia.com/definition/4816/systems-analyst#:~:text=-%20Definition%20from%20Techopedia%20What%20Does%20Systems%20Analyst,are%20functioning%20as%20effectively%20and%20efficiently%20as%20possible."/>
-    <hyperlink ref="D104" r:id="rId52" display="https://docs.devexpress.com/eXpressAppFramework/112828/design-time-features/module-designer"/>
-    <hyperlink ref="D105" r:id="rId53" display="https://kta.com/kta-university/quality-assurance-quality-control-roles/#:~:text=QC%20personnel%20perform%20the%20testing%20and%20compare%20the,requirements%20and%20testing%20procedures%2C%20they%20cannot%20contol%20quality."/>
-    <hyperlink ref="D106" r:id="rId54" display="https://www.sciencedirect.com/topics/computer-science/software-configuration-management"/>
-    <hyperlink ref="D107" r:id="rId55" display="https://dictionary.cambridge.org/dictionary/english/dependency"/>
-    <hyperlink ref="D108" r:id="rId56" display="https://www.merriam-webster.com/dictionary/association"/>
-    <hyperlink ref="D109" r:id="rId57" display="https://blog.csdn.net/qq_31868149/article/details/82912139"/>
-    <hyperlink ref="D110" r:id="rId58" display="https://dictionary.cambridge.org/dictionary/english/composition"/>
-    <hyperlink ref="D111" r:id="rId59" display="https://www.britannica.com/topic/generalization"/>
-    <hyperlink ref="D112" r:id="rId60" display="About Realization Technologies | Realization" tooltip="https://www.realization.com/about-us"/>
+    <hyperlink ref="D41" r:id="rId1" display="https://refactoring.guru/design-patterns/bridge#:~:text=The%20Bridge%20pattern%20lets%20you%20split%20the%20monolithic,and%20minimizes%20the%20risk%20of%20breaking%20existing%20code."/>
+    <hyperlink ref="D42" r:id="rId2" display="https://www.itdevtools.com/tech/4983.html"/>
+    <hyperlink ref="D43" r:id="rId3" display="https://www.runoob.com/design-pattern/facade-pattern.html"/>
+    <hyperlink ref="D45" r:id="rId4" display="https://www.geeksforgeeks.org/chain-responsibility-design-pattern/#:~:text=Chain%20of%20responsibility%20pattern%20is%20used%20to%20achieve,the%20next%20object%20in%20the%20chain%20or%20not."/>
+    <hyperlink ref="D46" r:id="rId5" display="https://zhuanlan.zhihu.com/p/86318110"/>
+    <hyperlink ref="D47" r:id="rId6" display="https://www.cnblogs.com/Bobby0322/p/4195555.html"/>
+    <hyperlink ref="D48" r:id="rId7" display="https://refactoring.guru/design-patterns/iterator#:~:text=The%20main%20idea%20of%20the%20Iterator%20pattern%20is,traverse%20the%20same%20collection%20at%20the%20same%20time."/>
+    <hyperlink ref="D49" r:id="rId8" display="https://blog.csdn.net/sophiemantela/article/details/106571588"/>
+    <hyperlink ref="D50" r:id="rId9" display="https://www.tutorialspoint.com/design_pattern/memento_pattern.htm"/>
+    <hyperlink ref="D51" r:id="rId10" display="https://www.baeldung.com/java-observer-pattern"/>
+    <hyperlink ref="D52" r:id="rId11" display="https://zhuanlan.zhihu.com/p/86076272"/>
+    <hyperlink ref="D53" r:id="rId12" display="https://www.jianshu.com/p/0c62bf587b9c"/>
+    <hyperlink ref="D54" r:id="rId13" display="https://www.oodesign.com/template-method-pattern.html"/>
+    <hyperlink ref="D55" r:id="rId14" display="https://www.cnblogs.com/zhenyulu/articles/79719.html"/>
+    <hyperlink ref="D56" r:id="rId15" display="https://dictionary.cambridge.org/dictionary/english/stub"/>
+    <hyperlink ref="D57" r:id="rId16" display="https://blog.csdn.net/OnlyQi/article/details/7975602#:~:text=Distributed%20computing%20is%20a%20field%20of%20computer%20science,other%20in%20order%20to%20achieve%20a%20common%20goal."/>
+    <hyperlink ref="D58" r:id="rId17" display="https://www.w3cschool.cn/software_testing/software_testing-qna537uy.html"/>
+    <hyperlink ref="D59" r:id="rId18" display="https://zhuanlan.zhihu.com/p/61723055"/>
+    <hyperlink ref="D60" r:id="rId19" display="https://www.baike.com/wiki/%e6%a8%a1%e5%9d%97%e7%8b%ac%e7%ab%8b%e6%80%a7?view_id=2n21dtzzxhq000"/>
+    <hyperlink ref="D61" r:id="rId20" display="https://www.w3cschool.cn/software_testing/software_testing-i75b3889.html"/>
+    <hyperlink ref="D63" r:id="rId21" display="https://docs.oracle.com/cd/E23120_01/html/821-2854/initialconfigofcontroldomain.html" tooltip="https://docs.oracle.com/cd/E23120_01/html/821-2854/initialconfigofcontroldomain.html"/>
+    <hyperlink ref="D64" r:id="rId22" display="https://www.jianshu.com/p/a0cd74930656" tooltip="https://www.jianshu.com/p/a0cd74930656"/>
+    <hyperlink ref="D65" r:id="rId22" display="https://www.jianshu.com/p/a0cd74930656"/>
+    <hyperlink ref="D66" r:id="rId23" display="https://www.mesacc.edu/community-civic-engagement/service-learning/independent-module"/>
+    <hyperlink ref="D67" r:id="rId24" display="https://searchsoftwarequality.techtarget.com/definition/structured-programming-modular-programming#:~:text=Structured%20programming%20encourages%20dividing%20an%20application%20program%20into,related%20logic%20designed%20to%20improve%20readability%20and%20maintainability."/>
+    <hyperlink ref="D68" r:id="rId25" display="https://www.cnblogs.com/yangcaogui/archive/2012/02/06/2337483.html"/>
+    <hyperlink ref="D69" r:id="rId26" display="https://www.edureka.co/blog/what-is-integration-testing-a-simple-guide-on-how-to-perform-integration-testing/"/>
+    <hyperlink ref="D70" r:id="rId27" display="https://softwaretestingfundamentals.com/system-testing/"/>
+    <hyperlink ref="D71" r:id="rId28" display="https://zhuanlan.zhihu.com/p/361444661"/>
+    <hyperlink ref="D72" r:id="rId29" display="https://www.softwaretestinghelp.com/beta-testing/#:~:text=What%20is%20Beta%20Testing%20%E2%80%93%20Definition.%20Beta%20Testing,use%20it%2C%20for%20over%20a%20period%20of%20time."/>
+    <hyperlink ref="D73" r:id="rId30" display="https://www.testingxperts.com/blog/regression-testing"/>
+    <hyperlink ref="D74" r:id="rId31" display="https://www.sciencedirect.com/topics/computer-science/software-maintenance"/>
+    <hyperlink ref="D75" r:id="rId32" display="https://www.fiixsoftware.com/corrective-maintenance/" tooltip="https://www.fiixsoftware.com/corrective-maintenance/"/>
+    <hyperlink ref="D76" r:id="rId33" display="http://www.perfectmaintenancecleaning.com/"/>
+    <hyperlink ref="D77" r:id="rId34" display="https://www.corrosionpedia.com/definition/6211/adaptive-maintenance"/>
+    <hyperlink ref="D78" r:id="rId35" display="https://www.ibm.com/topics/what-is-preventive-maintenance"/>
+    <hyperlink ref="D79" r:id="rId36" display="https://www.software.ac.uk/resources/guides/developing-maintainable-software#:~:text=Maintainable%20software%20allows%20you%20to%20quickly%20and%20easily%3A,7%20Bring%20new%20developers%20on%20board%20your%20project"/>
+    <hyperlink ref="D80" r:id="rId37" display="https://users.monash.edu/~jonmc/CSE2305/Topics/13.25.SWEng4/html/text.html"/>
+    <hyperlink ref="D81" r:id="rId38" display="https://www.merriam-webster.com/dictionary/inherit"/>
+    <hyperlink ref="D62" r:id="rId39" display="https://corporatefinanceinstitute.com/resources/knowledge/strategy/quality-management/#:~:text=Quality%20management%20consists%20of%20four%20key%20components%2C%20which,and%20reliability%20in%20achieving%20an%20outcome.%20%E6%9B%B4%E5%A4%9A%E7%BB%93%E6%9E%9C...%20"/>
+    <hyperlink ref="D82" r:id="rId40" display="https://www.kanzhun.com/jobs/1451/" tooltip="https://www.kanzhun.com/jobs/1451/"/>
+    <hyperlink ref="D83" r:id="rId41" display="https://www.careerexplorer.com/careers/product-manager/#:~:text=The%20following%20are%20some%20responsibilities%20and%20duties%20of,the%20release%20aspect%20of%20the%20product%20%E6%9B%B4%E5%A4%9A%E7%BB%93%E6%9E%9C...%20"/>
+    <hyperlink ref="D84" r:id="rId42" display="https://www.glassdoor.com/Job-Descriptions/Development-Manager.htm#:~:text=What%20is%20a%20Development%20Manager%3F%20A%20development%20manager,tasks%20required%20to%20successfully%20complete%20the%20company%27s%20initiatives."/>
+    <hyperlink ref="D85" r:id="rId43" display="https://www.merriam-webster.com/dictionary/designer"/>
+    <hyperlink ref="D86" r:id="rId44" display="https://www.guru99.com/introduction-to-test-management-for-curious-manager.html"/>
+    <hyperlink ref="D87" r:id="rId45" display="https://cn.bing.com/dict/search?q=developer&amp;FORM=BDVSP2&amp;qpvt=Developer"/>
+    <hyperlink ref="D88" r:id="rId46" display="https://www.thefreedictionary.com/tester"/>
+    <hyperlink ref="D89" r:id="rId47" display="https://www.coursehero.com/file/38574358/2-Implement-project-personnel-training-and-development-rev2pdf/"/>
+    <hyperlink ref="D90" r:id="rId48" display="https://dictionary.cambridge.org/dictionary/english/demand"/>
+    <hyperlink ref="D91" r:id="rId49" display="https://careers.skyworksinc.com/job/Irvine-Demand-Management-Business-Analyst-CA-92602/685953700/#:~:text=The%20Sr.%20Demand%20Analyst%20will%20be%20part%20of,as%20well%20as%20identifies%20and%20resolves%20forecast%20variances."/>
+    <hyperlink ref="D92" r:id="rId50" display="https://www.techopedia.com/definition/4816/systems-analyst#:~:text=-%20Definition%20from%20Techopedia%20What%20Does%20Systems%20Analyst,are%20functioning%20as%20effectively%20and%20efficiently%20as%20possible."/>
+    <hyperlink ref="D93" r:id="rId51" display="https://docs.devexpress.com/eXpressAppFramework/112828/design-time-features/module-designer"/>
+    <hyperlink ref="D94" r:id="rId52" display="https://kta.com/kta-university/quality-assurance-quality-control-roles/#:~:text=QC%20personnel%20perform%20the%20testing%20and%20compare%20the,requirements%20and%20testing%20procedures%2C%20they%20cannot%20contol%20quality."/>
+    <hyperlink ref="D95" r:id="rId53" display="https://www.sciencedirect.com/topics/computer-science/software-configuration-management"/>
+    <hyperlink ref="D96" r:id="rId54" display="https://dictionary.cambridge.org/dictionary/english/dependency"/>
+    <hyperlink ref="D97" r:id="rId55" display="https://www.merriam-webster.com/dictionary/association"/>
+    <hyperlink ref="D98" r:id="rId56" display="https://blog.csdn.net/qq_31868149/article/details/82912139"/>
+    <hyperlink ref="D99" r:id="rId57" display="https://dictionary.cambridge.org/dictionary/english/composition"/>
+    <hyperlink ref="D100" r:id="rId58" display="https://www.britannica.com/topic/generalization"/>
+    <hyperlink ref="D101" r:id="rId59" display="About Realization Technologies | Realization" tooltip="https://www.realization.com/about-us"/>
+    <hyperlink ref="D15" r:id="rId60" display="https://www.cnblogs.com/jingcaijueyan/p/9456072.html"/>
+    <hyperlink ref="D16" r:id="rId61" display="https://baike.so.com/doc/6148990-6362177.html"/>
+    <hyperlink ref="D17" r:id="rId62" display="https://baike.baidu.com/item/%E6%95%B0%E6%8D%AE%E5%AD%98%E5%82%A8"/>
+    <hyperlink ref="D18" r:id="rId63" display="https://www.baike.com/wikiid/6707020170390709387?prd=home_search&amp;search_id=1ncfpp3wro1s00&amp;view_id=56kt95nw2hc000"/>
+    <hyperlink ref="D24" r:id="rId64" display="https://www.baike.com/wikiid/3831055210011202329?prd=result_list&amp;view_id=3zdpbra6daw000"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
